--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -103,7 +103,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -126,8 +126,8 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -140,159 +140,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -303,7 +165,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,80 +189,29 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,104 +219,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent 1 17" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 16" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2 18" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3 19" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad 13" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error 15" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote 8" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good 11" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1 4" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2 5" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 3" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink 9" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral 12" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note 7" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status 10" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text 6" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning 14" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1232,23 +966,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="13.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1270,7 +1004,7 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>42000</v>
+        <v>46000</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
@@ -1286,7 +1020,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>101000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,7 +1041,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>101000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,6 +1252,34 @@
       </c>
       <c r="D17" s="7" t="n">
         <v>44522</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>44523</v>
       </c>
     </row>
   </sheetData>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -966,17 +966,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="8.84"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>46000</v>
+        <v>52000</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
@@ -1020,10 +1020,10 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>105000</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,6 +1279,48 @@
         <v>2000</v>
       </c>
       <c r="D19" s="7" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="7" t="n">
         <v>44523</v>
       </c>
     </row>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -190,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,15 +211,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,16 +970,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="7.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.05"/>
@@ -987,7 +992,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -996,7 +1001,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1004,26 +1009,26 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>52000</v>
-      </c>
-      <c r="H1" s="5" t="s">
+        <v>54000</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>111000</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -1033,15 +1038,15 @@
       <c r="C2" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D2" s="7" t="n">
-        <v>44522</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="5" t="n">
+        <v>44522</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>111000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1054,7 +1059,7 @@
       <c r="C3" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1068,7 +1073,7 @@
       <c r="C4" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1082,7 +1087,7 @@
       <c r="C5" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1096,7 +1101,7 @@
       <c r="C6" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1110,7 +1115,7 @@
       <c r="C7" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1124,7 +1129,7 @@
       <c r="C8" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1138,7 +1143,7 @@
       <c r="C9" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1152,7 +1157,7 @@
       <c r="C10" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1166,7 +1171,7 @@
       <c r="C11" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1180,7 +1185,7 @@
       <c r="C12" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1188,13 +1193,13 @@
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>6000</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1208,7 +1213,7 @@
       <c r="C14" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1222,7 +1227,7 @@
       <c r="C15" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1230,13 +1235,13 @@
       <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1250,7 +1255,7 @@
       <c r="C17" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="5" t="n">
         <v>44522</v>
       </c>
     </row>
@@ -1264,7 +1269,7 @@
       <c r="C18" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="5" t="n">
         <v>44523</v>
       </c>
     </row>
@@ -1278,7 +1283,7 @@
       <c r="C19" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="5" t="n">
         <v>44523</v>
       </c>
     </row>
@@ -1292,7 +1297,7 @@
       <c r="C20" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="5" t="n">
         <v>44523</v>
       </c>
     </row>
@@ -1306,7 +1311,7 @@
       <c r="C21" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="5" t="n">
         <v>44523</v>
       </c>
     </row>
@@ -1320,7 +1325,21 @@
       <c r="C22" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="5" t="n">
+        <v>44523</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>44523</v>
       </c>
     </row>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -970,7 +970,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>113000</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>113000</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,6 +1341,48 @@
       </c>
       <c r="D23" s="5" t="n">
         <v>44523</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>93</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>44524</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>44525</v>
       </c>
     </row>
   </sheetData>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -970,10 +970,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>60000</v>
+        <v>62000</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>119000</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>119000</v>
+        <v>121000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,6 +1382,20 @@
         <v>2000</v>
       </c>
       <c r="D26" s="5" t="n">
+        <v>44525</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="5" t="n">
         <v>44525</v>
       </c>
     </row>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -190,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,6 +221,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -970,10 +974,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,7 +989,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="8.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="13.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
@@ -1009,23 +1013,23 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>62000</v>
+        <v>64000</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>121000</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,12 +1045,18 @@
       <c r="D2" s="5" t="n">
         <v>44522</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>121000</v>
+        <v>123000</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>44531</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,7 +1203,7 @@
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="4" t="n">
@@ -1235,7 +1245,7 @@
       <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="4" t="n">
@@ -1397,6 +1407,20 @@
       </c>
       <c r="D27" s="5" t="n">
         <v>44525</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>44531</v>
       </c>
     </row>
   </sheetData>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -974,10 +974,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>64000</v>
+        <v>66000</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>123000</v>
+        <v>118000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,13 +1050,16 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>123000</v>
+        <v>125000</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>44531</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,6 +1424,20 @@
       </c>
       <c r="D28" s="5" t="n">
         <v>44531</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>44532</v>
       </c>
     </row>
   </sheetData>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -974,10 +974,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="F1" s="3" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>66000</v>
+        <v>68000</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>0</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>118000</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F2" s="3" t="n">
         <f aca="false">F1+Покос_2021!F3</f>
-        <v>125000</v>
+        <v>127000</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>1</v>
@@ -1075,6 +1075,15 @@
       <c r="D3" s="5" t="n">
         <v>44522</v>
       </c>
+      <c r="H3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>44538</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>7000</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -1089,6 +1098,15 @@
       <c r="D4" s="5" t="n">
         <v>44522</v>
       </c>
+      <c r="H4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>44551</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>7000</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -1438,6 +1456,20 @@
       </c>
       <c r="D29" s="5" t="n">
         <v>44532</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>99</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>44539</v>
       </c>
     </row>
   </sheetData>

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -258,7 +258,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -977,7 +977,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>106000</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,6 +1120,15 @@
       </c>
       <c r="D5" s="5" t="n">
         <v>44522</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>44567</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Отчетность.xlsx
+++ b/Отчетность.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t xml:space="preserve">№ п/п</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Итого с учетом остатка прошлого периода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого потрачено</t>
   </si>
   <si>
     <t xml:space="preserve">7,8,9</t>
@@ -258,7 +261,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -977,7 +980,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1029,7 +1032,7 @@
       </c>
       <c r="L1" s="3" t="n">
         <f aca="false">F2-SUM(J:J)</f>
-        <v>99000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,6 +1064,13 @@
       <c r="J2" s="4" t="n">
         <v>7000</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <f aca="false">SUM(J:J)</f>
+        <v>37000</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -1144,6 +1154,15 @@
       <c r="D6" s="5" t="n">
         <v>44522</v>
       </c>
+      <c r="H6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>44576</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -1234,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>6000</v>
@@ -1276,7 +1295,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>2000</v>
